--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/NEW_HAMPSHIRE_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/NEW_HAMPSHIRE_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Solosuchiapa</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -566,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -641,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -654,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -698,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Azoyu</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -877,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -908,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -921,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tecalitlan</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1017,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1074,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1188,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1219,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Nicolas De Los Garza</t>
@@ -1232,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1263,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1294,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>El Marques</t>
@@ -1307,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1320,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1333,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1364,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -1377,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -1390,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1421,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1452,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1483,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Hidalgotitlan</t>
@@ -1496,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1509,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -1522,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1553,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -1566,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1579,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -1592,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
